--- a/measurements/detector_signals/cycle_2/5/radial_measurements_all.xlsx
+++ b/measurements/detector_signals/cycle_2/5/radial_measurements_all.xlsx
@@ -964,13 +964,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.474737420402</v>
+        <v>0.473302907143</v>
       </c>
       <c r="G3" t="n">
-        <v>0.475900425236</v>
+        <v>0.475900425237</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00116300483424</v>
+        <v>0.00259751809358</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -990,13 +990,13 @@
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>0.805110954625</v>
+        <v>0.802678152216</v>
       </c>
       <c r="G4" t="n">
-        <v>0.801516505661</v>
+        <v>0.8015165056619999</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.00359444896396</v>
+        <v>-0.00116164655439</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1016,13 +1016,13 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.982243372406</v>
+        <v>0.979275329269</v>
       </c>
       <c r="G5" t="n">
         <v>0.954806537369</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0274368350373</v>
+        <v>-0.0244687918996</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1042,13 +1042,13 @@
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>0.961684911917</v>
+        <v>0.958778990247</v>
       </c>
       <c r="G6" t="n">
         <v>0.965827389322</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00414247740456</v>
+        <v>0.00704839907524</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1068,13 +1068,13 @@
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>0.982243372406</v>
+        <v>0.979275329269</v>
       </c>
       <c r="G7" t="n">
-        <v>0.947793267944</v>
+        <v>0.947793267945</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0344501044618</v>
+        <v>-0.0314820613241</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1094,13 +1094,13 @@
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>0.805110954625</v>
+        <v>0.802678152216</v>
       </c>
       <c r="G8" t="n">
         <v>0.796507027501</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.008603927124339999</v>
+        <v>-0.00617112471478</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1120,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>0.474737420402</v>
+        <v>0.473302907143</v>
       </c>
       <c r="G9" t="n">
         <v>0.473896633972</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0008407864299090001</v>
+        <v>0.000593726829425</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1146,13 +1146,13 @@
         <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>0.465163196967</v>
+        <v>0.463757614122</v>
       </c>
       <c r="G10" t="n">
         <v>0.455862512595</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.00930068437228</v>
+        <v>-0.00789510152696</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1172,13 +1172,13 @@
         <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>0.859036516319</v>
+        <v>0.856440767133</v>
       </c>
       <c r="G11" t="n">
-        <v>0.843596122208</v>
+        <v>0.843596122209</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0154403941108</v>
+        <v>-0.0128446449242</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1198,13 +1198,13 @@
         <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>1.07851850632</v>
+        <v>1.07525954878</v>
       </c>
       <c r="G12" t="n">
         <v>1.08204728264</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00352877632241</v>
+        <v>0.00678773386317</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1224,13 +1224,13 @@
         <v>24</v>
       </c>
       <c r="F13" t="n">
-        <v>1.08012395456</v>
+        <v>1.07686014584</v>
       </c>
       <c r="G13" t="n">
         <v>1.11310604724</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0329820926768</v>
+        <v>0.0362459013976</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1250,13 +1250,13 @@
         <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>1.10471137594</v>
+        <v>1.10137327145</v>
       </c>
       <c r="G14" t="n">
         <v>1.10809656908</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00338519313639</v>
+        <v>0.00672329762717</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1276,13 +1276,13 @@
         <v>27</v>
       </c>
       <c r="F15" t="n">
-        <v>1.08012395456</v>
+        <v>1.07686014584</v>
       </c>
       <c r="G15" t="n">
         <v>1.10208519528</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0219612407239</v>
+        <v>0.0252250494447</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1302,13 +1302,13 @@
         <v>29</v>
       </c>
       <c r="F16" t="n">
-        <v>1.07851850632</v>
+        <v>1.07525954878</v>
       </c>
       <c r="G16" t="n">
         <v>1.07503401322</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.00348449310213</v>
+        <v>-0.000225535561369</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1328,13 +1328,13 @@
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>0.859036516319</v>
+        <v>0.856440767133</v>
       </c>
       <c r="G17" t="n">
-        <v>0.841592330944</v>
+        <v>0.841592330945</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0174441853749</v>
+        <v>-0.0148484361883</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1354,13 +1354,13 @@
         <v>33</v>
       </c>
       <c r="F18" t="n">
-        <v>0.465163196967</v>
+        <v>0.463757614122</v>
       </c>
       <c r="G18" t="n">
         <v>0.454860616963</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0103025800044</v>
+        <v>-0.00889699715904</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1380,13 +1380,13 @@
         <v>35</v>
       </c>
       <c r="F19" t="n">
-        <v>0.465163196967</v>
+        <v>0.463757614122</v>
       </c>
       <c r="G19" t="n">
         <v>0.454860616963</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0103025800044</v>
+        <v>-0.00889699715904</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1406,13 +1406,13 @@
         <v>37</v>
       </c>
       <c r="F20" t="n">
-        <v>0.989819709813</v>
+        <v>0.986828773272</v>
       </c>
       <c r="G20" t="n">
-        <v>0.982859615067</v>
+        <v>0.982859615068</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.00696009474615</v>
+        <v>-0.00396915820445</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1432,13 +1432,13 @@
         <v>39</v>
       </c>
       <c r="F21" t="n">
-        <v>1.07173387609</v>
+        <v>1.06849541964</v>
       </c>
       <c r="G21" t="n">
         <v>1.05699989184</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0147339842495</v>
+        <v>-0.0114955277988</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1458,13 +1458,13 @@
         <v>41</v>
       </c>
       <c r="F22" t="n">
-        <v>1.11034580447</v>
+        <v>1.10699067444</v>
       </c>
       <c r="G22" t="n">
-        <v>1.10709467344</v>
+        <v>1.10709467345</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.00325113102569</v>
+        <v>0.000103999005095</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1484,13 +1484,13 @@
         <v>43</v>
       </c>
       <c r="F23" t="n">
-        <v>1.05022318917</v>
+        <v>1.04704973153</v>
       </c>
       <c r="G23" t="n">
         <v>1.06200937</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0117861808309</v>
+        <v>0.0149596384716</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1510,13 +1510,13 @@
         <v>45</v>
       </c>
       <c r="F24" t="n">
-        <v>1.1625441549</v>
+        <v>1.1590312972</v>
       </c>
       <c r="G24" t="n">
         <v>1.12212310793</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0404210469745</v>
+        <v>-0.0369081892737</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1536,13 +1536,13 @@
         <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>1.06580015992</v>
+        <v>1.06257963338</v>
       </c>
       <c r="G25" t="n">
         <v>1.07403211759</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0082319576658</v>
+        <v>0.0114524842066</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1562,13 +1562,13 @@
         <v>48</v>
       </c>
       <c r="F26" t="n">
-        <v>1.1625441549</v>
+        <v>1.1590312972</v>
       </c>
       <c r="G26" t="n">
-        <v>1.10709467344</v>
+        <v>1.10709467345</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0554494814557</v>
+        <v>-0.0519366237549</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1588,13 +1588,13 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>1.05022318917</v>
+        <v>1.04704973153</v>
       </c>
       <c r="G27" t="n">
         <v>1.05699989184</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0067767026705</v>
+        <v>0.00995016031124</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1614,13 +1614,13 @@
         <v>51</v>
       </c>
       <c r="F28" t="n">
-        <v>1.11034580447</v>
+        <v>1.10699067444</v>
       </c>
       <c r="G28" t="n">
         <v>1.10408898655</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.00625681792191</v>
+        <v>-0.00290168789114</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1640,13 +1640,13 @@
         <v>19</v>
       </c>
       <c r="F29" t="n">
-        <v>1.07173387609</v>
+        <v>1.06849541964</v>
       </c>
       <c r="G29" t="n">
         <v>1.05499610058</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.0167377755137</v>
+        <v>-0.0134993190629</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1666,13 +1666,13 @@
         <v>54</v>
       </c>
       <c r="F30" t="n">
-        <v>0.989819709813</v>
+        <v>0.986828773272</v>
       </c>
       <c r="G30" t="n">
-        <v>0.982859615067</v>
+        <v>0.982859615068</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.00696009474615</v>
+        <v>-0.00396915820445</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1692,13 +1692,13 @@
         <v>20</v>
       </c>
       <c r="F31" t="n">
-        <v>0.465163196967</v>
+        <v>0.463757614122</v>
       </c>
       <c r="G31" t="n">
         <v>0.455862512595</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.00930068437228</v>
+        <v>-0.00789510152696</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1718,13 +1718,13 @@
         <v>22</v>
       </c>
       <c r="F32" t="n">
-        <v>0.859036516319</v>
+        <v>0.856440767133</v>
       </c>
       <c r="G32" t="n">
-        <v>0.841592330944</v>
+        <v>0.841592330945</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.0174441853749</v>
+        <v>-0.0148484361883</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1744,13 +1744,13 @@
         <v>23</v>
       </c>
       <c r="F33" t="n">
-        <v>1.07173387609</v>
+        <v>1.06849541964</v>
       </c>
       <c r="G33" t="n">
         <v>1.05499610058</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.0167377755137</v>
+        <v>-0.0134993190629</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1770,13 +1770,13 @@
         <v>59</v>
       </c>
       <c r="F34" t="n">
-        <v>0.979162756619</v>
+        <v>0.976204022173</v>
       </c>
       <c r="G34" t="n">
         <v>1.04798283115</v>
       </c>
       <c r="H34" t="n">
-        <v>0.06882007453279999</v>
+        <v>0.0717788089796</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1796,13 +1796,13 @@
         <v>61</v>
       </c>
       <c r="F35" t="n">
-        <v>1.11087707737</v>
+        <v>1.10752034199</v>
       </c>
       <c r="G35" t="n">
         <v>1.10809656908</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.00278050829361</v>
+        <v>0.000576227087172</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1822,13 +1822,13 @@
         <v>63</v>
       </c>
       <c r="F36" t="n">
-        <v>1.06916301529</v>
+        <v>1.06593232723</v>
       </c>
       <c r="G36" t="n">
         <v>1.08204728264</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0128842673524</v>
+        <v>0.0161149554132</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1848,13 +1848,13 @@
         <v>25</v>
       </c>
       <c r="F37" t="n">
-        <v>1.07864147499</v>
+        <v>1.07538214587</v>
       </c>
       <c r="G37" t="n">
         <v>1.09607382149</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0174323465015</v>
+        <v>0.0206916756222</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1874,13 +1874,13 @@
         <v>66</v>
       </c>
       <c r="F38" t="n">
-        <v>1.06916301529</v>
+        <v>1.06593232723</v>
       </c>
       <c r="G38" t="n">
         <v>1.08004349138</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0108804760883</v>
+        <v>0.014111164149</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1900,13 +1900,13 @@
         <v>68</v>
       </c>
       <c r="F39" t="n">
-        <v>1.11087707737</v>
+        <v>1.10752034199</v>
       </c>
       <c r="G39" t="n">
         <v>1.10609277781</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.00478429955776</v>
+        <v>-0.00142756417698</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1926,13 +1926,13 @@
         <v>70</v>
       </c>
       <c r="F40" t="n">
-        <v>0.979162756619</v>
+        <v>0.976204022173</v>
       </c>
       <c r="G40" t="n">
         <v>1.04798283115</v>
       </c>
       <c r="H40" t="n">
-        <v>0.06882007453279999</v>
+        <v>0.0717788089796</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1952,13 +1952,13 @@
         <v>72</v>
       </c>
       <c r="F41" t="n">
-        <v>1.07173387609</v>
+        <v>1.06849541964</v>
       </c>
       <c r="G41" t="n">
         <v>1.05699989184</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.0147339842495</v>
+        <v>-0.0114955277988</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1978,13 +1978,13 @@
         <v>74</v>
       </c>
       <c r="F42" t="n">
-        <v>0.859036516319</v>
+        <v>0.856440767133</v>
       </c>
       <c r="G42" t="n">
-        <v>0.843596122208</v>
+        <v>0.843596122209</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.0154403941108</v>
+        <v>-0.0128446449242</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2004,13 +2004,13 @@
         <v>76</v>
       </c>
       <c r="F43" t="n">
-        <v>0.474737420402</v>
+        <v>0.473302907143</v>
       </c>
       <c r="G43" t="n">
         <v>0.473896633972</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.0008407864299090001</v>
+        <v>0.000593726829425</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2030,13 +2030,13 @@
         <v>78</v>
       </c>
       <c r="F44" t="n">
-        <v>1.11034580447</v>
+        <v>1.10699067444</v>
       </c>
       <c r="G44" t="n">
         <v>1.10408898655</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.00625681792191</v>
+        <v>-0.00290168789114</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2056,13 +2056,13 @@
         <v>26</v>
       </c>
       <c r="F45" t="n">
-        <v>1.07607152044</v>
+        <v>1.07281995695</v>
       </c>
       <c r="G45" t="n">
         <v>1.07904159575</v>
       </c>
       <c r="H45" t="n">
-        <v>0.00297007530618</v>
+        <v>0.00622163879694</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2082,13 +2082,13 @@
         <v>81</v>
       </c>
       <c r="F46" t="n">
-        <v>1.04407388534</v>
+        <v>1.04091900905</v>
       </c>
       <c r="G46" t="n">
         <v>1.04297335299</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.00110053234857</v>
+        <v>0.00205434394217</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2108,13 +2108,13 @@
         <v>83</v>
       </c>
       <c r="F47" t="n">
-        <v>1.14275445509</v>
+        <v>1.13930139588</v>
       </c>
       <c r="G47" t="n">
         <v>1.12713258609</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.0156218690042</v>
+        <v>-0.0121688097934</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2134,13 +2134,13 @@
         <v>85</v>
       </c>
       <c r="F48" t="n">
-        <v>1.09302310669</v>
+        <v>1.08972032062</v>
       </c>
       <c r="G48" t="n">
         <v>1.08204728264</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.0109758240476</v>
+        <v>-0.00767303797683</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2160,13 +2160,13 @@
         <v>28</v>
       </c>
       <c r="F49" t="n">
-        <v>1.14275445509</v>
+        <v>1.13930139588</v>
       </c>
       <c r="G49" t="n">
         <v>1.13915533367</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.00359912141924</v>
+        <v>-0.000146062208441</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2186,13 +2186,13 @@
         <v>88</v>
       </c>
       <c r="F50" t="n">
-        <v>1.04407388534</v>
+        <v>1.04091900905</v>
       </c>
       <c r="G50" t="n">
         <v>1.04497714426</v>
       </c>
       <c r="H50" t="n">
-        <v>0.000903258915584</v>
+        <v>0.00405813520632</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2212,13 +2212,13 @@
         <v>30</v>
       </c>
       <c r="F51" t="n">
-        <v>1.07607152044</v>
+        <v>1.07281995695</v>
       </c>
       <c r="G51" t="n">
         <v>1.07904159575</v>
       </c>
       <c r="H51" t="n">
-        <v>0.00297007530618</v>
+        <v>0.00622163879694</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2238,13 +2238,13 @@
         <v>32</v>
       </c>
       <c r="F52" t="n">
-        <v>1.11034580447</v>
+        <v>1.10699067444</v>
       </c>
       <c r="G52" t="n">
-        <v>1.10709467344</v>
+        <v>1.10709467345</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.00325113102569</v>
+        <v>0.000103999005095</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2264,13 +2264,13 @@
         <v>92</v>
       </c>
       <c r="F53" t="n">
-        <v>0.474737420402</v>
+        <v>0.473302907143</v>
       </c>
       <c r="G53" t="n">
-        <v>0.475900425236</v>
+        <v>0.475900425237</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00116300483424</v>
+        <v>0.00259751809358</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2290,13 +2290,13 @@
         <v>34</v>
       </c>
       <c r="F54" t="n">
-        <v>0.805110954625</v>
+        <v>0.802678152216</v>
       </c>
       <c r="G54" t="n">
         <v>0.796507027501</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.008603927124339999</v>
+        <v>-0.00617112471478</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2316,13 +2316,13 @@
         <v>95</v>
       </c>
       <c r="F55" t="n">
-        <v>1.07851850632</v>
+        <v>1.07525954878</v>
       </c>
       <c r="G55" t="n">
         <v>1.07503401322</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.00348449310213</v>
+        <v>-0.000225535561369</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2342,13 +2342,13 @@
         <v>36</v>
       </c>
       <c r="F56" t="n">
-        <v>1.05022318917</v>
+        <v>1.04704973153</v>
       </c>
       <c r="G56" t="n">
         <v>1.05699989184</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0067767026705</v>
+        <v>0.00995016031124</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2368,13 +2368,13 @@
         <v>98</v>
       </c>
       <c r="F57" t="n">
-        <v>1.11087707737</v>
+        <v>1.10752034199</v>
       </c>
       <c r="G57" t="n">
         <v>1.10609277781</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.00478429955776</v>
+        <v>-0.00142756417698</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2382,13 +2382,13 @@
         <v>99</v>
       </c>
       <c r="F58" t="n">
-        <v>1.04407388534</v>
+        <v>1.04091900905</v>
       </c>
       <c r="G58" t="n">
         <v>1.04497714426</v>
       </c>
       <c r="H58" t="n">
-        <v>0.000903258915584</v>
+        <v>0.00405813520632</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2396,13 +2396,13 @@
         <v>38</v>
       </c>
       <c r="F59" t="n">
-        <v>1.01670007418</v>
+        <v>1.14658263877</v>
       </c>
       <c r="G59" t="n">
         <v>1.15318187252</v>
       </c>
       <c r="H59" t="n">
-        <v>0.13648179834</v>
+        <v>0.00659923375064</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2410,13 +2410,13 @@
         <v>100</v>
       </c>
       <c r="F60" t="n">
-        <v>1.13515609701</v>
+        <v>1.13172599776</v>
       </c>
       <c r="G60" t="n">
         <v>1.11010036034</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.0250557366695</v>
+        <v>-0.0216256374187</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2424,13 +2424,13 @@
         <v>40</v>
       </c>
       <c r="F61" t="n">
-        <v>1.10139904258</v>
+        <v>1.09807094696</v>
       </c>
       <c r="G61" t="n">
         <v>1.10609277781</v>
       </c>
       <c r="H61" t="n">
-        <v>0.00469373523224</v>
+        <v>0.008021830853020001</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2438,13 +2438,13 @@
         <v>101</v>
       </c>
       <c r="F62" t="n">
-        <v>1.13515609701</v>
+        <v>1.13172599776</v>
       </c>
       <c r="G62" t="n">
         <v>1.11410794287</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.0210481541412</v>
+        <v>-0.0176180548904</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2452,13 +2452,13 @@
         <v>102</v>
       </c>
       <c r="F63" t="n">
-        <v>1.01670007418</v>
+        <v>1.14658263877</v>
       </c>
       <c r="G63" t="n">
         <v>1.15318187252</v>
       </c>
       <c r="H63" t="n">
-        <v>0.13648179834</v>
+        <v>0.00659923375064</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2466,13 +2466,13 @@
         <v>103</v>
       </c>
       <c r="F64" t="n">
-        <v>1.04407388534</v>
+        <v>1.04091900905</v>
       </c>
       <c r="G64" t="n">
         <v>1.04397524862</v>
       </c>
       <c r="H64" t="n">
-        <v>-9.863671649209999e-05</v>
+        <v>0.00305623957424</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2480,13 +2480,13 @@
         <v>104</v>
       </c>
       <c r="F65" t="n">
-        <v>1.11087707737</v>
+        <v>1.10752034199</v>
       </c>
       <c r="G65" t="n">
         <v>1.10809656908</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.00278050829361</v>
+        <v>0.000576227087172</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2494,13 +2494,13 @@
         <v>105</v>
       </c>
       <c r="F66" t="n">
-        <v>1.05022318917</v>
+        <v>1.04704973153</v>
       </c>
       <c r="G66" t="n">
         <v>1.06301126563</v>
       </c>
       <c r="H66" t="n">
-        <v>0.012788076463</v>
+        <v>0.0159615341037</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2508,13 +2508,13 @@
         <v>42</v>
       </c>
       <c r="F67" t="n">
-        <v>1.07851850632</v>
+        <v>1.07525954878</v>
       </c>
       <c r="G67" t="n">
         <v>1.08204728264</v>
       </c>
       <c r="H67" t="n">
-        <v>0.00352877632241</v>
+        <v>0.00678773386317</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2522,13 +2522,13 @@
         <v>106</v>
       </c>
       <c r="F68" t="n">
-        <v>0.805110954625</v>
+        <v>0.802678152216</v>
       </c>
       <c r="G68" t="n">
-        <v>0.802518401293</v>
+        <v>0.802518401294</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.00259255333188</v>
+        <v>-0.000159750922316</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2536,13 +2536,13 @@
         <v>107</v>
       </c>
       <c r="F69" t="n">
-        <v>0.982243372406</v>
+        <v>0.979275329269</v>
       </c>
       <c r="G69" t="n">
-        <v>0.948795163576</v>
+        <v>0.948795163577</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.0334482088297</v>
+        <v>-0.0304801656921</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2550,13 +2550,13 @@
         <v>108</v>
       </c>
       <c r="F70" t="n">
-        <v>1.08012395456</v>
+        <v>1.07686014584</v>
       </c>
       <c r="G70" t="n">
         <v>1.10208519528</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0219612407239</v>
+        <v>0.0252250494447</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2564,13 +2564,13 @@
         <v>109</v>
       </c>
       <c r="F71" t="n">
-        <v>1.1625441549</v>
+        <v>1.1590312972</v>
       </c>
       <c r="G71" t="n">
-        <v>1.10709467344</v>
+        <v>1.10709467345</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.0554494814557</v>
+        <v>-0.0519366237549</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2578,13 +2578,13 @@
         <v>44</v>
       </c>
       <c r="F72" t="n">
-        <v>1.06916301529</v>
+        <v>1.06593232723</v>
       </c>
       <c r="G72" t="n">
         <v>1.08104538701</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0118823717203</v>
+        <v>0.0151130597811</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2592,13 +2592,13 @@
         <v>110</v>
       </c>
       <c r="F73" t="n">
-        <v>1.14275445509</v>
+        <v>1.13930139588</v>
       </c>
       <c r="G73" t="n">
         <v>1.13915533367</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.00359912141924</v>
+        <v>-0.000146062208441</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2606,13 +2606,13 @@
         <v>111</v>
       </c>
       <c r="F74" t="n">
-        <v>1.13515609701</v>
+        <v>1.13172599776</v>
       </c>
       <c r="G74" t="n">
         <v>1.11410794287</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.0210481541412</v>
+        <v>-0.0176180548904</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2620,13 +2620,13 @@
         <v>46</v>
       </c>
       <c r="F75" t="n">
-        <v>1.11944284713</v>
+        <v>1.11606022858</v>
       </c>
       <c r="G75" t="n">
         <v>1.12112121229</v>
       </c>
       <c r="H75" t="n">
-        <v>0.00167836516338</v>
+        <v>0.00506098371417</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2634,13 +2634,13 @@
         <v>112</v>
       </c>
       <c r="F76" t="n">
-        <v>1.12993206711</v>
+        <v>1.1265177533</v>
       </c>
       <c r="G76" t="n">
         <v>1.12412689919</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.00580516792039</v>
+        <v>-0.0023908541096</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2648,13 +2648,13 @@
         <v>113</v>
       </c>
       <c r="F77" t="n">
-        <v>1.11944284713</v>
+        <v>1.11606022858</v>
       </c>
       <c r="G77" t="n">
         <v>1.12112121229</v>
       </c>
       <c r="H77" t="n">
-        <v>0.00167836516338</v>
+        <v>0.00506098371417</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2662,13 +2662,13 @@
         <v>47</v>
       </c>
       <c r="F78" t="n">
-        <v>1.13515609701</v>
+        <v>1.13172599776</v>
       </c>
       <c r="G78" t="n">
         <v>1.11110225597</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.0240538410374</v>
+        <v>-0.0206237417866</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2676,13 +2676,13 @@
         <v>114</v>
       </c>
       <c r="F79" t="n">
-        <v>1.14275445509</v>
+        <v>1.13930139588</v>
       </c>
       <c r="G79" t="n">
         <v>1.12813448172</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.0146199733721</v>
+        <v>-0.0111669141613</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2690,13 +2690,13 @@
         <v>115</v>
       </c>
       <c r="F80" t="n">
-        <v>1.06916301529</v>
+        <v>1.06593232723</v>
       </c>
       <c r="G80" t="n">
         <v>1.08204728264</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0128842673524</v>
+        <v>0.0161149554132</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2704,13 +2704,13 @@
         <v>49</v>
       </c>
       <c r="F81" t="n">
-        <v>1.1625441549</v>
+        <v>1.1590312972</v>
       </c>
       <c r="G81" t="n">
         <v>1.12212310793</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.0404210469745</v>
+        <v>-0.0369081892737</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2718,13 +2718,13 @@
         <v>116</v>
       </c>
       <c r="F82" t="n">
-        <v>1.08012395456</v>
+        <v>1.07686014584</v>
       </c>
       <c r="G82" t="n">
         <v>1.11310604724</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0329820926768</v>
+        <v>0.0362459013976</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -2732,13 +2732,13 @@
         <v>117</v>
       </c>
       <c r="F83" t="n">
-        <v>0.982243372406</v>
+        <v>0.979275329269</v>
       </c>
       <c r="G83" t="n">
         <v>0.954806537369</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.0274368350373</v>
+        <v>-0.0244687918996</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2746,13 +2746,13 @@
         <v>50</v>
       </c>
       <c r="F84" t="n">
-        <v>0.961684911917</v>
+        <v>0.958778990247</v>
       </c>
       <c r="G84" t="n">
         <v>0.965827389322</v>
       </c>
       <c r="H84" t="n">
-        <v>0.00414247740456</v>
+        <v>0.00704839907524</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -2760,13 +2760,13 @@
         <v>118</v>
       </c>
       <c r="F85" t="n">
-        <v>1.10471137594</v>
+        <v>1.10137327145</v>
       </c>
       <c r="G85" t="n">
         <v>1.10809656908</v>
       </c>
       <c r="H85" t="n">
-        <v>0.00338519313639</v>
+        <v>0.00672329762717</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2774,13 +2774,13 @@
         <v>52</v>
       </c>
       <c r="F86" t="n">
-        <v>1.06580015992</v>
+        <v>1.06257963338</v>
       </c>
       <c r="G86" t="n">
         <v>1.07403211759</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0082319576658</v>
+        <v>0.0114524842066</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -2788,13 +2788,13 @@
         <v>119</v>
       </c>
       <c r="F87" t="n">
-        <v>1.07864147499</v>
+        <v>1.07538214587</v>
       </c>
       <c r="G87" t="n">
         <v>1.09607382149</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0174323465015</v>
+        <v>0.0206916756222</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2802,13 +2802,13 @@
         <v>53</v>
       </c>
       <c r="F88" t="n">
-        <v>1.09302310669</v>
+        <v>1.08972032062</v>
       </c>
       <c r="G88" t="n">
-        <v>1.08304917827</v>
+        <v>1.08304917828</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.00997392841552</v>
+        <v>-0.00667114234475</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -2816,13 +2816,13 @@
         <v>120</v>
       </c>
       <c r="F89" t="n">
-        <v>1.10139904258</v>
+        <v>1.09807094696</v>
       </c>
       <c r="G89" t="n">
-        <v>1.10709467344</v>
+        <v>1.10709467345</v>
       </c>
       <c r="H89" t="n">
-        <v>0.00569563086432</v>
+        <v>0.00902372648509</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -2830,13 +2830,13 @@
         <v>55</v>
       </c>
       <c r="F90" t="n">
-        <v>1.12993206711</v>
+        <v>1.1265177533</v>
       </c>
       <c r="G90" t="n">
         <v>1.12613069045</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.00380137665624</v>
+        <v>-0.000387062845442</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -2844,13 +2844,13 @@
         <v>121</v>
       </c>
       <c r="F91" t="n">
-        <v>1.12993206711</v>
+        <v>1.1265177533</v>
       </c>
       <c r="G91" t="n">
         <v>1.12613069045</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.00380137665624</v>
+        <v>-0.000387062845442</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -2858,13 +2858,13 @@
         <v>56</v>
       </c>
       <c r="F92" t="n">
-        <v>1.10139904258</v>
+        <v>1.09807094696</v>
       </c>
       <c r="G92" t="n">
-        <v>1.10709467344</v>
+        <v>1.10709467345</v>
       </c>
       <c r="H92" t="n">
-        <v>0.00569563086432</v>
+        <v>0.00902372648509</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -2872,13 +2872,13 @@
         <v>122</v>
       </c>
       <c r="F93" t="n">
-        <v>1.09302310669</v>
+        <v>1.08972032062</v>
       </c>
       <c r="G93" t="n">
-        <v>1.08304917827</v>
+        <v>1.08304917828</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.00997392841552</v>
+        <v>-0.00667114234475</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -2886,13 +2886,13 @@
         <v>57</v>
       </c>
       <c r="F94" t="n">
-        <v>1.07864147499</v>
+        <v>1.07538214587</v>
       </c>
       <c r="G94" t="n">
         <v>1.09607382149</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0174323465015</v>
+        <v>0.0206916756222</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -2900,13 +2900,13 @@
         <v>58</v>
       </c>
       <c r="F95" t="n">
-        <v>1.06580015992</v>
+        <v>1.06257963338</v>
       </c>
       <c r="G95" t="n">
         <v>1.07403211759</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0082319576658</v>
+        <v>0.0114524842066</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -2914,13 +2914,13 @@
         <v>60</v>
       </c>
       <c r="F96" t="n">
-        <v>1.10471137594</v>
+        <v>1.10137327145</v>
       </c>
       <c r="G96" t="n">
         <v>1.10809656908</v>
       </c>
       <c r="H96" t="n">
-        <v>0.00338519313639</v>
+        <v>0.00672329762717</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -2928,13 +2928,13 @@
         <v>123</v>
       </c>
       <c r="F97" t="n">
-        <v>0.961684911917</v>
+        <v>0.958778990247</v>
       </c>
       <c r="G97" t="n">
         <v>0.965827389322</v>
       </c>
       <c r="H97" t="n">
-        <v>0.00414247740456</v>
+        <v>0.00704839907524</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -2942,13 +2942,13 @@
         <v>124</v>
       </c>
       <c r="F98" t="n">
-        <v>0.982243372406</v>
+        <v>0.979275329269</v>
       </c>
       <c r="G98" t="n">
         <v>0.954806537369</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.0274368350373</v>
+        <v>-0.0244687918996</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -2956,13 +2956,13 @@
         <v>125</v>
       </c>
       <c r="F99" t="n">
-        <v>1.08012395456</v>
+        <v>1.07686014584</v>
       </c>
       <c r="G99" t="n">
         <v>1.11310604724</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0329820926768</v>
+        <v>0.0362459013976</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -2970,13 +2970,13 @@
         <v>126</v>
       </c>
       <c r="F100" t="n">
-        <v>1.1625441549</v>
+        <v>1.1590312972</v>
       </c>
       <c r="G100" t="n">
         <v>1.12212310793</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.0404210469745</v>
+        <v>-0.0369081892737</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -2984,13 +2984,13 @@
         <v>127</v>
       </c>
       <c r="F101" t="n">
-        <v>1.06916301529</v>
+        <v>1.06593232723</v>
       </c>
       <c r="G101" t="n">
         <v>1.08204728264</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0128842673524</v>
+        <v>0.0161149554132</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -2998,13 +2998,13 @@
         <v>128</v>
       </c>
       <c r="F102" t="n">
-        <v>1.14275445509</v>
+        <v>1.13930139588</v>
       </c>
       <c r="G102" t="n">
         <v>1.12813448172</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.0146199733721</v>
+        <v>-0.0111669141613</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3012,13 +3012,13 @@
         <v>129</v>
       </c>
       <c r="F103" t="n">
-        <v>1.13515609701</v>
+        <v>1.13172599776</v>
       </c>
       <c r="G103" t="n">
         <v>1.11110225597</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.0240538410374</v>
+        <v>-0.0206237417866</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3026,13 +3026,13 @@
         <v>130</v>
       </c>
       <c r="F104" t="n">
-        <v>1.11944284713</v>
+        <v>1.11606022858</v>
       </c>
       <c r="G104" t="n">
         <v>1.12312500356</v>
       </c>
       <c r="H104" t="n">
-        <v>0.00368215642754</v>
+        <v>0.00706477497833</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3040,13 +3040,13 @@
         <v>131</v>
       </c>
       <c r="F105" t="n">
-        <v>1.12993206711</v>
+        <v>1.1265177533</v>
       </c>
       <c r="G105" t="n">
         <v>1.12813448172</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.00179758539208</v>
+        <v>0.00161672841871</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3054,13 +3054,13 @@
         <v>62</v>
       </c>
       <c r="F106" t="n">
-        <v>1.11944284713</v>
+        <v>1.11606022858</v>
       </c>
       <c r="G106" t="n">
         <v>1.12312500356</v>
       </c>
       <c r="H106" t="n">
-        <v>0.00368215642754</v>
+        <v>0.00706477497833</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3068,13 +3068,13 @@
         <v>132</v>
       </c>
       <c r="F107" t="n">
-        <v>1.13515609701</v>
+        <v>1.13172599776</v>
       </c>
       <c r="G107" t="n">
         <v>1.1151098385</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.0200462585091</v>
+        <v>-0.0166161592583</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3082,13 +3082,13 @@
         <v>64</v>
       </c>
       <c r="F108" t="n">
-        <v>1.14275445509</v>
+        <v>1.13930139588</v>
       </c>
       <c r="G108" t="n">
         <v>1.1401572293</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.00259722578717</v>
+        <v>0.000855833423636</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3096,13 +3096,13 @@
         <v>133</v>
       </c>
       <c r="F109" t="n">
-        <v>1.06916301529</v>
+        <v>1.06593232723</v>
       </c>
       <c r="G109" t="n">
         <v>1.08104538701</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0118823717203</v>
+        <v>0.0151130597811</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3110,13 +3110,13 @@
         <v>134</v>
       </c>
       <c r="F110" t="n">
-        <v>1.1625441549</v>
+        <v>1.1590312972</v>
       </c>
       <c r="G110" t="n">
-        <v>1.10709467344</v>
+        <v>1.10709467345</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.0554494814557</v>
+        <v>-0.0519366237549</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3124,13 +3124,13 @@
         <v>135</v>
       </c>
       <c r="F111" t="n">
-        <v>1.08012395456</v>
+        <v>1.07686014584</v>
       </c>
       <c r="G111" t="n">
         <v>1.10208519528</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0219612407239</v>
+        <v>0.0252250494447</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3138,13 +3138,13 @@
         <v>65</v>
       </c>
       <c r="F112" t="n">
-        <v>0.982243372406</v>
+        <v>0.979275329269</v>
       </c>
       <c r="G112" t="n">
-        <v>0.948795163576</v>
+        <v>0.948795163577</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.0334482088297</v>
+        <v>-0.0304801656921</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -3152,13 +3152,13 @@
         <v>136</v>
       </c>
       <c r="F113" t="n">
-        <v>0.805110954625</v>
+        <v>0.802678152216</v>
       </c>
       <c r="G113" t="n">
-        <v>0.802518401293</v>
+        <v>0.802518401294</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.00259255333188</v>
+        <v>-0.000159750922316</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -3166,13 +3166,13 @@
         <v>137</v>
       </c>
       <c r="F114" t="n">
-        <v>1.07851850632</v>
+        <v>1.07525954878</v>
       </c>
       <c r="G114" t="n">
         <v>1.08204728264</v>
       </c>
       <c r="H114" t="n">
-        <v>0.00352877632241</v>
+        <v>0.00678773386317</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -3180,13 +3180,13 @@
         <v>138</v>
       </c>
       <c r="F115" t="n">
-        <v>1.05022318917</v>
+        <v>1.04704973153</v>
       </c>
       <c r="G115" t="n">
         <v>1.06301126563</v>
       </c>
       <c r="H115" t="n">
-        <v>0.012788076463</v>
+        <v>0.0159615341037</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -3194,13 +3194,13 @@
         <v>139</v>
       </c>
       <c r="F116" t="n">
-        <v>1.11087707737</v>
+        <v>1.10752034199</v>
       </c>
       <c r="G116" t="n">
         <v>1.10809656908</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.00278050829361</v>
+        <v>0.000576227087172</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -3208,13 +3208,13 @@
         <v>67</v>
       </c>
       <c r="F117" t="n">
-        <v>1.04407388534</v>
+        <v>1.04091900905</v>
       </c>
       <c r="G117" t="n">
         <v>1.04397524862</v>
       </c>
       <c r="H117" t="n">
-        <v>-9.863671649209999e-05</v>
+        <v>0.00305623957424</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -3222,13 +3222,13 @@
         <v>140</v>
       </c>
       <c r="F118" t="n">
-        <v>1.01670007418</v>
+        <v>1.14658263877</v>
       </c>
       <c r="G118" t="n">
         <v>1.15418376815</v>
       </c>
       <c r="H118" t="n">
-        <v>0.137483693972</v>
+        <v>0.00760112938271</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -3236,13 +3236,13 @@
         <v>69</v>
       </c>
       <c r="F119" t="n">
-        <v>1.13515609701</v>
+        <v>1.13172599776</v>
       </c>
       <c r="G119" t="n">
         <v>1.1151098385</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.0200462585091</v>
+        <v>-0.0166161592583</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -3250,13 +3250,13 @@
         <v>141</v>
       </c>
       <c r="F120" t="n">
-        <v>1.10139904258</v>
+        <v>1.09807094696</v>
       </c>
       <c r="G120" t="n">
         <v>1.10809656908</v>
       </c>
       <c r="H120" t="n">
-        <v>0.00669752649639</v>
+        <v>0.0100256221172</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -3264,13 +3264,13 @@
         <v>142</v>
       </c>
       <c r="F121" t="n">
-        <v>1.13515609701</v>
+        <v>1.13172599776</v>
       </c>
       <c r="G121" t="n">
-        <v>1.1121041516</v>
+        <v>1.11210415161</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.0230519454053</v>
+        <v>-0.0196218461545</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -3278,13 +3278,13 @@
         <v>143</v>
       </c>
       <c r="F122" t="n">
-        <v>1.01670007418</v>
+        <v>1.14658263877</v>
       </c>
       <c r="G122" t="n">
         <v>1.15418376815</v>
       </c>
       <c r="H122" t="n">
-        <v>0.137483693972</v>
+        <v>0.00760112938271</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -3292,13 +3292,13 @@
         <v>144</v>
       </c>
       <c r="F123" t="n">
-        <v>1.04407388534</v>
+        <v>1.04091900905</v>
       </c>
       <c r="G123" t="n">
         <v>1.04597903989</v>
       </c>
       <c r="H123" t="n">
-        <v>0.00190515454766</v>
+        <v>0.0050600308384</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -3306,13 +3306,13 @@
         <v>71</v>
       </c>
       <c r="F124" t="n">
-        <v>1.11087707737</v>
+        <v>1.10752034199</v>
       </c>
       <c r="G124" t="n">
         <v>1.10609277781</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.00478429955776</v>
+        <v>-0.00142756417698</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -3320,13 +3320,13 @@
         <v>145</v>
       </c>
       <c r="F125" t="n">
-        <v>1.05022318917</v>
+        <v>1.04704973153</v>
       </c>
       <c r="G125" t="n">
         <v>1.05699989184</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0067767026705</v>
+        <v>0.00995016031124</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -3334,13 +3334,13 @@
         <v>146</v>
       </c>
       <c r="F126" t="n">
-        <v>1.07851850632</v>
+        <v>1.07525954878</v>
       </c>
       <c r="G126" t="n">
         <v>1.07503401322</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.00348449310213</v>
+        <v>-0.000225535561369</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -3348,13 +3348,13 @@
         <v>147</v>
       </c>
       <c r="F127" t="n">
-        <v>0.805110954625</v>
+        <v>0.802678152216</v>
       </c>
       <c r="G127" t="n">
         <v>0.797508923133</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.00760203149226</v>
+        <v>-0.0051692290827</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -3362,13 +3362,13 @@
         <v>73</v>
       </c>
       <c r="F128" t="n">
-        <v>0.474737420402</v>
+        <v>0.473302907143</v>
       </c>
       <c r="G128" t="n">
-        <v>0.475900425236</v>
+        <v>0.475900425237</v>
       </c>
       <c r="H128" t="n">
-        <v>0.00116300483424</v>
+        <v>0.00259751809358</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -3376,13 +3376,13 @@
         <v>148</v>
       </c>
       <c r="F129" t="n">
-        <v>1.11034580447</v>
+        <v>1.10699067444</v>
       </c>
       <c r="G129" t="n">
-        <v>1.10709467344</v>
+        <v>1.10709467345</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.00325113102569</v>
+        <v>0.000103999005095</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -3390,13 +3390,13 @@
         <v>75</v>
       </c>
       <c r="F130" t="n">
-        <v>1.07607152044</v>
+        <v>1.07281995695</v>
       </c>
       <c r="G130" t="n">
         <v>1.07904159575</v>
       </c>
       <c r="H130" t="n">
-        <v>0.00297007530618</v>
+        <v>0.00622163879694</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -3404,13 +3404,13 @@
         <v>149</v>
       </c>
       <c r="F131" t="n">
-        <v>1.04407388534</v>
+        <v>1.04091900905</v>
       </c>
       <c r="G131" t="n">
         <v>1.04597903989</v>
       </c>
       <c r="H131" t="n">
-        <v>0.00190515454766</v>
+        <v>0.0050600308384</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -3418,13 +3418,13 @@
         <v>150</v>
       </c>
       <c r="F132" t="n">
-        <v>1.14275445509</v>
+        <v>1.13930139588</v>
       </c>
       <c r="G132" t="n">
         <v>1.1401572293</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.00259722578717</v>
+        <v>0.000855833423636</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -3432,13 +3432,13 @@
         <v>77</v>
       </c>
       <c r="F133" t="n">
-        <v>1.09302310669</v>
+        <v>1.08972032062</v>
       </c>
       <c r="G133" t="n">
-        <v>1.08304917827</v>
+        <v>1.08304917828</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.00997392841552</v>
+        <v>-0.00667114234475</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -3446,13 +3446,13 @@
         <v>151</v>
       </c>
       <c r="F134" t="n">
-        <v>1.14275445509</v>
+        <v>1.13930139588</v>
       </c>
       <c r="G134" t="n">
         <v>1.12813448172</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.0146199733721</v>
+        <v>-0.0111669141613</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -3460,13 +3460,13 @@
         <v>152</v>
       </c>
       <c r="F135" t="n">
-        <v>1.04407388534</v>
+        <v>1.04091900905</v>
       </c>
       <c r="G135" t="n">
         <v>1.04397524862</v>
       </c>
       <c r="H135" t="n">
-        <v>-9.863671649209999e-05</v>
+        <v>0.00305623957424</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -3474,13 +3474,13 @@
         <v>79</v>
       </c>
       <c r="F136" t="n">
-        <v>1.07607152044</v>
+        <v>1.07281995695</v>
       </c>
       <c r="G136" t="n">
         <v>1.07904159575</v>
       </c>
       <c r="H136" t="n">
-        <v>0.00297007530618</v>
+        <v>0.00622163879694</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -3488,13 +3488,13 @@
         <v>153</v>
       </c>
       <c r="F137" t="n">
-        <v>1.11034580447</v>
+        <v>1.10699067444</v>
       </c>
       <c r="G137" t="n">
         <v>1.10408898655</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.00625681792191</v>
+        <v>-0.00290168789114</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -3502,13 +3502,13 @@
         <v>80</v>
       </c>
       <c r="F138" t="n">
-        <v>0.474737420402</v>
+        <v>0.473302907143</v>
       </c>
       <c r="G138" t="n">
         <v>0.473896633972</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.0008407864299090001</v>
+        <v>0.000593726829425</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -3516,13 +3516,13 @@
         <v>154</v>
       </c>
       <c r="F139" t="n">
-        <v>0.859036516319</v>
+        <v>0.856440767133</v>
       </c>
       <c r="G139" t="n">
-        <v>0.843596122208</v>
+        <v>0.843596122209</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.0154403941108</v>
+        <v>-0.0128446449242</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -3530,13 +3530,13 @@
         <v>155</v>
       </c>
       <c r="F140" t="n">
-        <v>1.07173387609</v>
+        <v>1.06849541964</v>
       </c>
       <c r="G140" t="n">
         <v>1.05699989184</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.0147339842495</v>
+        <v>-0.0114955277988</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -3544,13 +3544,13 @@
         <v>156</v>
       </c>
       <c r="F141" t="n">
-        <v>0.979162756619</v>
+        <v>0.976204022173</v>
       </c>
       <c r="G141" t="n">
         <v>1.04798283115</v>
       </c>
       <c r="H141" t="n">
-        <v>0.06882007453279999</v>
+        <v>0.0717788089796</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -3558,13 +3558,13 @@
         <v>82</v>
       </c>
       <c r="F142" t="n">
-        <v>1.11087707737</v>
+        <v>1.10752034199</v>
       </c>
       <c r="G142" t="n">
         <v>1.10609277781</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.00478429955776</v>
+        <v>-0.00142756417698</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -3572,13 +3572,13 @@
         <v>157</v>
       </c>
       <c r="F143" t="n">
-        <v>1.06916301529</v>
+        <v>1.06593232723</v>
       </c>
       <c r="G143" t="n">
         <v>1.08104538701</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0118823717203</v>
+        <v>0.0151130597811</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -3586,13 +3586,13 @@
         <v>158</v>
       </c>
       <c r="F144" t="n">
-        <v>1.07864147499</v>
+        <v>1.07538214587</v>
       </c>
       <c r="G144" t="n">
         <v>1.09707571712</v>
       </c>
       <c r="H144" t="n">
-        <v>0.0184342421336</v>
+        <v>0.0216935712543</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -3600,13 +3600,13 @@
         <v>84</v>
       </c>
       <c r="F145" t="n">
-        <v>1.06916301529</v>
+        <v>1.06593232723</v>
       </c>
       <c r="G145" t="n">
         <v>1.08204728264</v>
       </c>
       <c r="H145" t="n">
-        <v>0.0128842673524</v>
+        <v>0.0161149554132</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -3614,13 +3614,13 @@
         <v>159</v>
       </c>
       <c r="F146" t="n">
-        <v>1.11087707737</v>
+        <v>1.10752034199</v>
       </c>
       <c r="G146" t="n">
         <v>1.10809656908</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.00278050829361</v>
+        <v>0.000576227087172</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -3628,13 +3628,13 @@
         <v>86</v>
       </c>
       <c r="F147" t="n">
-        <v>0.979162756619</v>
+        <v>0.976204022173</v>
       </c>
       <c r="G147" t="n">
         <v>1.04798283115</v>
       </c>
       <c r="H147" t="n">
-        <v>0.06882007453279999</v>
+        <v>0.0717788089796</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -3642,13 +3642,13 @@
         <v>160</v>
       </c>
       <c r="F148" t="n">
-        <v>1.07173387609</v>
+        <v>1.06849541964</v>
       </c>
       <c r="G148" t="n">
         <v>1.05599799621</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.0157358798816</v>
+        <v>-0.0124974234308</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -3656,13 +3656,13 @@
         <v>161</v>
       </c>
       <c r="F149" t="n">
-        <v>0.859036516319</v>
+        <v>0.856440767133</v>
       </c>
       <c r="G149" t="n">
-        <v>0.842594226576</v>
+        <v>0.842594226577</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.0164422897428</v>
+        <v>-0.0138465405562</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -3670,13 +3670,13 @@
         <v>162</v>
       </c>
       <c r="F150" t="n">
-        <v>0.465163196967</v>
+        <v>0.463757614122</v>
       </c>
       <c r="G150" t="n">
         <v>0.455862512595</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.00930068437228</v>
+        <v>-0.00789510152696</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -3684,13 +3684,13 @@
         <v>87</v>
       </c>
       <c r="F151" t="n">
-        <v>0.989819709813</v>
+        <v>0.986828773272</v>
       </c>
       <c r="G151" t="n">
-        <v>0.982859615067</v>
+        <v>0.982859615068</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.00696009474615</v>
+        <v>-0.00396915820445</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -3698,13 +3698,13 @@
         <v>163</v>
       </c>
       <c r="F152" t="n">
-        <v>1.07173387609</v>
+        <v>1.06849541964</v>
       </c>
       <c r="G152" t="n">
         <v>1.05599799621</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.0157358798816</v>
+        <v>-0.0124974234308</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -3712,13 +3712,13 @@
         <v>89</v>
       </c>
       <c r="F153" t="n">
-        <v>1.11034580447</v>
+        <v>1.10699067444</v>
       </c>
       <c r="G153" t="n">
         <v>1.10408898655</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.00625681792191</v>
+        <v>-0.00290168789114</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -3726,13 +3726,13 @@
         <v>164</v>
       </c>
       <c r="F154" t="n">
-        <v>1.05022318917</v>
+        <v>1.04704973153</v>
       </c>
       <c r="G154" t="n">
         <v>1.05699989184</v>
       </c>
       <c r="H154" t="n">
-        <v>0.0067767026705</v>
+        <v>0.00995016031124</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -3740,13 +3740,13 @@
         <v>165</v>
       </c>
       <c r="F155" t="n">
-        <v>1.1625441549</v>
+        <v>1.1590312972</v>
       </c>
       <c r="G155" t="n">
-        <v>1.10709467344</v>
+        <v>1.10709467345</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.0554494814557</v>
+        <v>-0.0519366237549</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -3754,13 +3754,13 @@
         <v>90</v>
       </c>
       <c r="F156" t="n">
-        <v>1.06580015992</v>
+        <v>1.06257963338</v>
       </c>
       <c r="G156" t="n">
         <v>1.07403211759</v>
       </c>
       <c r="H156" t="n">
-        <v>0.0082319576658</v>
+        <v>0.0114524842066</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -3768,13 +3768,13 @@
         <v>166</v>
       </c>
       <c r="F157" t="n">
-        <v>1.1625441549</v>
+        <v>1.1590312972</v>
       </c>
       <c r="G157" t="n">
         <v>1.12312500356</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.0394191513425</v>
+        <v>-0.0359062936417</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -3782,13 +3782,13 @@
         <v>167</v>
       </c>
       <c r="F158" t="n">
-        <v>1.05022318917</v>
+        <v>1.04704973153</v>
       </c>
       <c r="G158" t="n">
         <v>1.06301126563</v>
       </c>
       <c r="H158" t="n">
-        <v>0.012788076463</v>
+        <v>0.0159615341037</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -3796,13 +3796,13 @@
         <v>168</v>
       </c>
       <c r="F159" t="n">
-        <v>1.11034580447</v>
+        <v>1.10699067444</v>
       </c>
       <c r="G159" t="n">
         <v>1.10809656908</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.00224923539361</v>
+        <v>0.00110589463717</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -3810,13 +3810,13 @@
         <v>169</v>
       </c>
       <c r="F160" t="n">
-        <v>1.07173387609</v>
+        <v>1.06849541964</v>
       </c>
       <c r="G160" t="n">
         <v>1.05699989184</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.0147339842495</v>
+        <v>-0.0114955277988</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -3824,13 +3824,13 @@
         <v>170</v>
       </c>
       <c r="F161" t="n">
-        <v>0.989819709813</v>
+        <v>0.986828773272</v>
       </c>
       <c r="G161" t="n">
-        <v>0.982859615067</v>
+        <v>0.982859615068</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.00696009474615</v>
+        <v>-0.00396915820445</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -3838,13 +3838,13 @@
         <v>171</v>
       </c>
       <c r="F162" t="n">
-        <v>0.465163196967</v>
+        <v>0.463757614122</v>
       </c>
       <c r="G162" t="n">
         <v>0.454860616963</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.0103025800044</v>
+        <v>-0.00889699715904</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -3852,13 +3852,13 @@
         <v>91</v>
       </c>
       <c r="F163" t="n">
-        <v>0.465163196967</v>
+        <v>0.463757614122</v>
       </c>
       <c r="G163" t="n">
         <v>0.454860616963</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.0103025800044</v>
+        <v>-0.00889699715904</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -3866,13 +3866,13 @@
         <v>172</v>
       </c>
       <c r="F164" t="n">
-        <v>0.859036516319</v>
+        <v>0.856440767133</v>
       </c>
       <c r="G164" t="n">
-        <v>0.842594226576</v>
+        <v>0.842594226577</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.0164422897428</v>
+        <v>-0.0138465405562</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -3880,13 +3880,13 @@
         <v>173</v>
       </c>
       <c r="F165" t="n">
-        <v>1.07851850632</v>
+        <v>1.07525954878</v>
       </c>
       <c r="G165" t="n">
         <v>1.07503401322</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.00348449310213</v>
+        <v>-0.000225535561369</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -3894,13 +3894,13 @@
         <v>93</v>
       </c>
       <c r="F166" t="n">
-        <v>1.08012395456</v>
+        <v>1.07686014584</v>
       </c>
       <c r="G166" t="n">
         <v>1.10208519528</v>
       </c>
       <c r="H166" t="n">
-        <v>0.0219612407239</v>
+        <v>0.0252250494447</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -3908,13 +3908,13 @@
         <v>174</v>
       </c>
       <c r="F167" t="n">
-        <v>1.10471137594</v>
+        <v>1.10137327145</v>
       </c>
       <c r="G167" t="n">
         <v>1.10809656908</v>
       </c>
       <c r="H167" t="n">
-        <v>0.00338519313639</v>
+        <v>0.00672329762717</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -3922,13 +3922,13 @@
         <v>175</v>
       </c>
       <c r="F168" t="n">
-        <v>1.08012395456</v>
+        <v>1.07686014584</v>
       </c>
       <c r="G168" t="n">
         <v>1.11410794287</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0339839883088</v>
+        <v>0.0372477970296</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -3936,13 +3936,13 @@
         <v>94</v>
       </c>
       <c r="F169" t="n">
-        <v>1.07851850632</v>
+        <v>1.07525954878</v>
       </c>
       <c r="G169" t="n">
         <v>1.08204728264</v>
       </c>
       <c r="H169" t="n">
-        <v>0.00352877632241</v>
+        <v>0.00678773386317</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -3950,13 +3950,13 @@
         <v>176</v>
       </c>
       <c r="F170" t="n">
-        <v>0.859036516319</v>
+        <v>0.856440767133</v>
       </c>
       <c r="G170" t="n">
-        <v>0.843596122208</v>
+        <v>0.843596122209</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.0154403941108</v>
+        <v>-0.0128446449242</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -3964,13 +3964,13 @@
         <v>177</v>
       </c>
       <c r="F171" t="n">
-        <v>0.465163196967</v>
+        <v>0.463757614122</v>
       </c>
       <c r="G171" t="n">
         <v>0.455862512595</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.00930068437228</v>
+        <v>-0.00789510152696</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -3978,13 +3978,13 @@
         <v>96</v>
       </c>
       <c r="F172" t="n">
-        <v>0.474737420402</v>
+        <v>0.473302907143</v>
       </c>
       <c r="G172" t="n">
         <v>0.473896633972</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.0008407864299090001</v>
+        <v>0.000593726829425</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -3992,13 +3992,13 @@
         <v>178</v>
       </c>
       <c r="F173" t="n">
-        <v>0.805110954625</v>
+        <v>0.802678152216</v>
       </c>
       <c r="G173" t="n">
         <v>0.797508923133</v>
       </c>
       <c r="H173" t="n">
-        <v>-0.00760203149226</v>
+        <v>-0.0051692290827</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -4006,13 +4006,13 @@
         <v>179</v>
       </c>
       <c r="F174" t="n">
-        <v>0.982243372406</v>
+        <v>0.979275329269</v>
       </c>
       <c r="G174" t="n">
-        <v>0.948795163576</v>
+        <v>0.948795163577</v>
       </c>
       <c r="H174" t="n">
-        <v>-0.0334482088297</v>
+        <v>-0.0304801656921</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -4020,13 +4020,13 @@
         <v>97</v>
       </c>
       <c r="F175" t="n">
-        <v>0.961684911917</v>
+        <v>0.958778990247</v>
       </c>
       <c r="G175" t="n">
         <v>0.965827389322</v>
       </c>
       <c r="H175" t="n">
-        <v>0.00414247740456</v>
+        <v>0.00704839907524</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -4034,13 +4034,13 @@
         <v>180</v>
       </c>
       <c r="F176" t="n">
-        <v>0.982243372406</v>
+        <v>0.979275329269</v>
       </c>
       <c r="G176" t="n">
         <v>0.954806537369</v>
       </c>
       <c r="H176" t="n">
-        <v>-0.0274368350373</v>
+        <v>-0.0244687918996</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -4048,13 +4048,13 @@
         <v>181</v>
       </c>
       <c r="F177" t="n">
-        <v>0.805110954625</v>
+        <v>0.802678152216</v>
       </c>
       <c r="G177" t="n">
-        <v>0.802518401293</v>
+        <v>0.802518401294</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.00259255333188</v>
+        <v>-0.000159750922316</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -4062,13 +4062,13 @@
         <v>182</v>
       </c>
       <c r="F178" t="n">
-        <v>0.474737420402</v>
+        <v>0.473302907143</v>
       </c>
       <c r="G178" t="n">
-        <v>0.475900425236</v>
+        <v>0.475900425237</v>
       </c>
       <c r="H178" t="n">
-        <v>0.00116300483424</v>
+        <v>0.00259751809358</v>
       </c>
     </row>
   </sheetData>
